--- a/Test_Results/Test_Results_3/toa_err.xlsx
+++ b/Test_Results/Test_Results_3/toa_err.xlsx
@@ -472,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.16434</v>
+        <v>2.13937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.44001</v>
+        <v>0.93955</v>
       </c>
       <c r="D3" t="n">
-        <v>18.44665</v>
+        <v>-10.25588</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.53355</v>
+        <v>-0.466</v>
       </c>
       <c r="C4" t="n">
-        <v>1.67537</v>
+        <v>-0.19561</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.68232</v>
+        <v>-1.32437</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -510,13 +510,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.27538</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>6.13959</v>
+        <v>-8.62524</v>
       </c>
       <c r="D5" t="n">
-        <v>2.49437</v>
+        <v>2.21758</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -529,17 +529,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4413</v>
+        <v>-0.04764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20691</v>
+        <v>0.9313</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.15869</v>
+        <v>7.91342</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -548,17 +548,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.32162</v>
+        <v>-1.37523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08111</v>
+        <v>1.30298</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.11854</v>
+        <v>1.35261</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.36146</v>
+        <v>-1.36607</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.21642</v>
+        <v>-0.89624</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64993</v>
+        <v>-0.52759</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02593</v>
+        <v>-1.66409</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.36488</v>
+        <v>-0.32369</v>
       </c>
       <c r="D9" t="n">
-        <v>3.63229</v>
+        <v>0.68336</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.17331</v>
+        <v>-1.18109</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.37953</v>
+        <v>0.01451</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.81209</v>
+        <v>-3.23807</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1603</v>
+        <v>-0.75213</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.50009</v>
+        <v>0.8610100000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.69572</v>
+        <v>1.42462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
